--- a/biology/Histoire de la zoologie et de la botanique/Charles_Coquerel/Charles_Coquerel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Coquerel/Charles_Coquerel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Charles Coquerel né le 2 décembre 1822 à Amsterdam et mort le 12 avril 1867 à Saint-Denis de La Réunion, est un médecin de marine et un entomologiste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'Anne Rattier et du pasteur Athanase-Charles Coquerel, frère ainé du pasteur de l’Église du libre examen Athanase Coquerel, Charles fit ses études à Paris, où son père avait été appelé dès 1830 comme pasteur de l’Église réformée.
 De bonne heure, Charles Coquerel embrassa la carrière de la chirurgie de marine, et y conquit, par le concours, tous ses grades, d'auxiliaire en 1845 jusqu’à celui de chirurgien de première classe en 1860. Il devint docteur de la Faculté de Paris en 1849 avec une thèse intitulée De la cécité nocturne. Il fit de nombreuses campagnes maritimes dans la Méditerranée et l’océan Indien, et notamment quatre voyages à Madagascar et à La Réunion, plus une campagne dans les Antilles et les campagnes de Crimée et d’Italie tout entières.
